--- a/backend/data/resume_bank_template.xlsx
+++ b/backend/data/resume_bank_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>location</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>location_preference</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>willing_to_relocate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>work_authorization</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +519,21 @@
           <t>Remote</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Flexible</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>US Citizen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,6 +569,21 @@
           <t>New York</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Flexible</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>US Citizen</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,6 +619,21 @@
           <t>San Francisco</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Flexible</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>US Citizen</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -609,6 +669,21 @@
           <t>Boston</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Flexible</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>US Citizen</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -644,6 +719,21 @@
           <t>Seattle</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Flexible</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>US Citizen</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -679,6 +769,21 @@
           <t>Austin</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Flexible</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>US Citizen</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -714,6 +819,21 @@
           <t>Chicago</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Flexible</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>US Citizen</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -747,6 +867,21 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>Denver</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Flexible</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>US Citizen</t>
         </is>
       </c>
     </row>
